--- a/financial_models/opportunities/0590.HK_Valuation_v1.00.xlsx
+++ b/financial_models/opportunities/0590.HK_Valuation_v1.00.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc_v3/financial_models/opportunities/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{896B126D-CD68-0A48-8531-33555749079D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CA58F9B-C2E3-4DC3-9B88-87D753ABD1CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -22,21 +22,10 @@
     <definedName name="Common_Shares">Dashboard!$G$4</definedName>
     <definedName name="Exchange_Rate">Dashboard!$G$7</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentManualCount="8"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
@@ -46,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="267">
   <si>
     <t>Company Info:</t>
   </si>
@@ -448,10 +437,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>- Interest</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Pre-tax Profit/Sales</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -580,9 +565,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Valuation Drivers</t>
-  </si>
-  <si>
     <t>External Drivers</t>
   </si>
   <si>
@@ -777,10 +759,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Upper</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Lower</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -889,9 +867,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Pessimistic Case</t>
-  </si>
-  <si>
     <t>3. Upward earnings trend?</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -969,6 +944,14 @@
   </si>
   <si>
     <t>Choice of Discount Rate</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>- Interest Expense</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base Case Valuation</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -980,18 +963,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="12">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="166" formatCode="#,##0&quot;mm&quot;"/>
-    <numFmt numFmtId="167" formatCode="#,##0.00&quot;x&quot;"/>
-    <numFmt numFmtId="168" formatCode="0.00\x"/>
-    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="170" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="171" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
-    <numFmt numFmtId="172" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="173" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="174" formatCode="0&quot; Years&quot;"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="178" formatCode="#,##0&quot;mm&quot;"/>
+    <numFmt numFmtId="179" formatCode="#,##0.00&quot;x&quot;"/>
+    <numFmt numFmtId="180" formatCode="0.00\x"/>
+    <numFmt numFmtId="181" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="182" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="183" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
+    <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="185" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="186" formatCode="0&quot; Years&quot;"/>
   </numFmts>
   <fonts count="29" x14ac:knownFonts="1">
     <font>
@@ -1267,7 +1250,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -1514,13 +1497,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="283">
+  <cellXfs count="284">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1573,8 +1567,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1597,14 +1591,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1634,7 +1628,7 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1736,7 +1730,7 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2"/>
@@ -1764,7 +1758,7 @@
     <xf numFmtId="3" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1817,13 +1811,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="174" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1859,7 +1853,7 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1889,16 +1883,16 @@
     <xf numFmtId="10" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1919,7 +1913,7 @@
     <xf numFmtId="10" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1941,10 +1935,10 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1953,10 +1947,10 @@
     <xf numFmtId="49" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1973,7 +1967,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1985,13 +1979,13 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="23" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2029,7 +2023,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2073,19 +2067,19 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="174" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
@@ -2110,7 +2104,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2122,10 +2116,10 @@
     <xf numFmtId="3" fontId="6" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="2" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="13" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2152,10 +2146,13 @@
     <xf numFmtId="10" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="10" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2164,7 +2161,7 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2178,7 +2175,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2191,14 +2188,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="21">
     <dxf>
@@ -2394,7 +2391,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2456,7 +2453,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2728,7 +2725,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2758,7 +2755,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3566,48 +3563,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A68" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="27.33203125" customWidth="1"/>
     <col min="3" max="13" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C4" s="189" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C5" s="192" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C6" s="190">
         <v>45593</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B7" s="140" t="s">
         <v>4</v>
       </c>
@@ -3615,39 +3612,39 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C8" s="192" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C9" s="193" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C10" s="194">
         <v>587107850</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C11" s="193" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="219" t="s">
         <v>10</v>
       </c>
@@ -3655,7 +3652,7 @@
         <v>45382</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="219" t="s">
         <v>11</v>
       </c>
@@ -3663,23 +3660,23 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="219" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C14" s="220">
         <v>45382</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="219" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C15" s="177" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="223" t="s">
         <v>97</v>
       </c>
@@ -3688,63 +3685,63 @@
       </c>
       <c r="D16" s="24"/>
     </row>
-    <row r="17" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="241" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C17" s="243" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D17" s="24"/>
     </row>
-    <row r="18" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="241" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C18" s="243" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D18" s="24"/>
     </row>
-    <row r="19" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="241" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C19" s="243" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D19" s="24"/>
     </row>
-    <row r="20" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="242" t="s">
+        <v>230</v>
+      </c>
+      <c r="C20" s="243" t="s">
+        <v>235</v>
+      </c>
+      <c r="D20" s="24"/>
+    </row>
+    <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B21" s="225" t="s">
+        <v>236</v>
+      </c>
+      <c r="C21" s="243" t="s">
+        <v>234</v>
+      </c>
+      <c r="D21" s="24"/>
+    </row>
+    <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
+      <c r="B22" s="227" t="s">
+        <v>232</v>
+      </c>
+      <c r="C22" s="244" t="s">
         <v>233</v>
       </c>
-      <c r="C20" s="243" t="s">
-        <v>238</v>
-      </c>
-      <c r="D20" s="24"/>
-    </row>
-    <row r="21" spans="2:13" ht="14" x14ac:dyDescent="0.15">
-      <c r="B21" s="225" t="s">
-        <v>239</v>
-      </c>
-      <c r="C21" s="243" t="s">
-        <v>237</v>
-      </c>
-      <c r="D21" s="24"/>
-    </row>
-    <row r="22" spans="2:13" ht="84" x14ac:dyDescent="0.15">
-      <c r="B22" s="227" t="s">
-        <v>235</v>
-      </c>
-      <c r="C22" s="244" t="s">
-        <v>236</v>
-      </c>
       <c r="D22" s="24"/>
     </row>
-    <row r="24" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3791,7 +3788,7 @@
         <v>41729</v>
       </c>
     </row>
-    <row r="25" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B25" s="94" t="s">
         <v>12</v>
       </c>
@@ -3819,7 +3816,7 @@
       <c r="L25" s="150"/>
       <c r="M25" s="150"/>
     </row>
-    <row r="26" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
         <v>106</v>
       </c>
@@ -3847,7 +3844,7 @@
       <c r="L26" s="151"/>
       <c r="M26" s="151"/>
     </row>
-    <row r="27" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
         <v>104</v>
       </c>
@@ -3875,7 +3872,7 @@
       <c r="L27" s="151"/>
       <c r="M27" s="151"/>
     </row>
-    <row r="28" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
         <v>107</v>
       </c>
@@ -3891,9 +3888,9 @@
       <c r="L28" s="151"/>
       <c r="M28" s="151"/>
     </row>
-    <row r="29" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>124</v>
+        <v>264</v>
       </c>
       <c r="C29" s="151">
         <v>59596</v>
@@ -3919,7 +3916,7 @@
       <c r="L29" s="151"/>
       <c r="M29" s="151"/>
     </row>
-    <row r="30" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
         <v>111</v>
       </c>
@@ -3947,7 +3944,7 @@
       <c r="L30" s="151"/>
       <c r="M30" s="151"/>
     </row>
-    <row r="31" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
         <v>110</v>
       </c>
@@ -3971,7 +3968,7 @@
       <c r="L31" s="151"/>
       <c r="M31" s="151"/>
     </row>
-    <row r="32" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
         <v>105</v>
       </c>
@@ -3991,7 +3988,7 @@
       <c r="L32" s="151"/>
       <c r="M32" s="151"/>
     </row>
-    <row r="33" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
         <v>108</v>
       </c>
@@ -4015,7 +4012,7 @@
       <c r="L33" s="151"/>
       <c r="M33" s="151"/>
     </row>
-    <row r="34" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="94" t="s">
         <v>15</v>
       </c>
@@ -4037,7 +4034,7 @@
       <c r="L34" s="151"/>
       <c r="M34" s="151"/>
     </row>
-    <row r="35" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
         <v>117</v>
       </c>
@@ -4059,9 +4056,9 @@
       <c r="L35" s="151"/>
       <c r="M35" s="151"/>
     </row>
-    <row r="36" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C36" s="218"/>
       <c r="D36" s="151">
@@ -4081,7 +4078,7 @@
       <c r="L36" s="151"/>
       <c r="M36" s="151"/>
     </row>
-    <row r="37" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="94" t="s">
         <v>16</v>
       </c>
@@ -4103,7 +4100,7 @@
       <c r="L37" s="151"/>
       <c r="M37" s="151"/>
     </row>
-    <row r="38" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
         <v>116</v>
       </c>
@@ -4125,7 +4122,7 @@
       <c r="L38" s="151"/>
       <c r="M38" s="151"/>
     </row>
-    <row r="39" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="94" t="s">
         <v>17</v>
       </c>
@@ -4148,7 +4145,7 @@
       <c r="L39" s="151"/>
       <c r="M39" s="151"/>
     </row>
-    <row r="40" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B40" s="94" t="s">
         <v>18</v>
       </c>
@@ -4170,9 +4167,9 @@
       <c r="L40" s="151"/>
       <c r="M40" s="151"/>
     </row>
-    <row r="41" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C41" s="218"/>
       <c r="D41" s="151">
@@ -4192,9 +4189,9 @@
       <c r="L41" s="151"/>
       <c r="M41" s="151"/>
     </row>
-    <row r="42" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C42" s="218"/>
       <c r="D42" s="151">
@@ -4214,9 +4211,9 @@
       <c r="L42" s="151"/>
       <c r="M42" s="151"/>
     </row>
-    <row r="43" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C43" s="218"/>
       <c r="D43" s="151">
@@ -4236,9 +4233,9 @@
       <c r="L43" s="151"/>
       <c r="M43" s="151"/>
     </row>
-    <row r="44" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C44" s="251">
         <f>0.72+0.64</f>
@@ -4270,70 +4267,70 @@
       <c r="L44" s="251"/>
       <c r="M44" s="251"/>
     </row>
-    <row r="45" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C45" s="153">
-        <f>IF(C44="","",C44/Dashboard!$G$3)</f>
-        <v>9.1520863487294393E-2</v>
+        <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
+        <v>9.2265943012211665E-2</v>
       </c>
       <c r="D45" s="153">
-        <f>IF(D44="","",D44/Dashboard!$G$3)</f>
-        <v>7.4024227820605776E-2</v>
+        <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
+        <v>7.4626865671641798E-2</v>
       </c>
       <c r="E45" s="153">
-        <f>IF(E44="","",E44/Dashboard!$G$3)</f>
-        <v>7.4024227820605776E-2</v>
+        <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
+        <v>7.4626865671641798E-2</v>
       </c>
       <c r="F45" s="153">
-        <f>IF(F44="","",F44/Dashboard!$G$3)</f>
-        <v>6.7294752564187058E-2</v>
+        <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
+        <v>6.7842605156037988E-2</v>
       </c>
       <c r="G45" s="153">
-        <f>IF(G44="","",G44/Dashboard!$G$3)</f>
-        <v>6.7294752564187058E-2</v>
+        <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
+        <v>6.7842605156037988E-2</v>
       </c>
       <c r="H45" s="153">
-        <f>IF(H44="","",H44/Dashboard!$G$3)</f>
-        <v>7.7388965448815114E-2</v>
+        <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
+        <v>7.8018995929443682E-2</v>
       </c>
       <c r="I45" s="153" t="str">
-        <f>IF(I44="","",I44/Dashboard!$G$3)</f>
+        <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
       <c r="J45" s="153" t="str">
-        <f>IF(J44="","",J44/Dashboard!$G$3)</f>
+        <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
       <c r="K45" s="153" t="str">
-        <f>IF(K44="","",K44/Dashboard!$G$3)</f>
+        <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
       <c r="L45" s="153" t="str">
-        <f>IF(L44="","",L44/Dashboard!$G$3)</f>
+        <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
       <c r="M45" s="153" t="str">
-        <f>IF(M44="","",M44/Dashboard!$G$3)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+        <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C47" s="195" t="s">
         <v>34</v>
       </c>
       <c r="D47" s="195" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="48" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
         <v>38</v>
       </c>
@@ -4345,9 +4342,9 @@
       </c>
       <c r="E48" s="112"/>
     </row>
-    <row r="49" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
@@ -4355,7 +4352,7 @@
       </c>
       <c r="E49" s="112"/>
     </row>
-    <row r="50" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
         <v>117</v>
       </c>
@@ -4368,7 +4365,7 @@
       </c>
       <c r="E50" s="112"/>
     </row>
-    <row r="51" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
         <v>42</v>
       </c>
@@ -4378,7 +4375,7 @@
       </c>
       <c r="E51" s="112"/>
     </row>
-    <row r="52" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
         <v>44</v>
       </c>
@@ -4388,9 +4385,9 @@
       </c>
       <c r="E52" s="112"/>
     </row>
-    <row r="53" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
@@ -4399,7 +4396,7 @@
       </c>
       <c r="E53" s="112"/>
     </row>
-    <row r="54" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
         <v>118</v>
       </c>
@@ -4411,7 +4408,7 @@
       </c>
       <c r="E54" s="112"/>
     </row>
-    <row r="55" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
         <v>47</v>
       </c>
@@ -4424,7 +4421,7 @@
       </c>
       <c r="E55" s="112"/>
     </row>
-    <row r="56" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
         <v>48</v>
       </c>
@@ -4437,7 +4434,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="57" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
         <v>120</v>
       </c>
@@ -4449,7 +4446,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="58" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
         <v>50</v>
       </c>
@@ -4462,7 +4459,7 @@
       </c>
       <c r="E58" s="112"/>
     </row>
-    <row r="59" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
         <v>51</v>
       </c>
@@ -4473,7 +4470,7 @@
       </c>
       <c r="E59" s="112"/>
     </row>
-    <row r="60" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
         <v>61</v>
       </c>
@@ -4484,7 +4481,7 @@
       </c>
       <c r="E60" s="112"/>
     </row>
-    <row r="61" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
         <v>63</v>
       </c>
@@ -4495,7 +4492,7 @@
       </c>
       <c r="E61" s="112"/>
     </row>
-    <row r="62" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
         <v>65</v>
       </c>
@@ -4506,9 +4503,9 @@
       </c>
       <c r="E62" s="112"/>
     </row>
-    <row r="63" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -4517,7 +4514,7 @@
       </c>
       <c r="E63" s="112"/>
     </row>
-    <row r="64" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
         <v>68</v>
       </c>
@@ -4529,7 +4526,7 @@
       </c>
       <c r="E64" s="112"/>
     </row>
-    <row r="65" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
         <v>70</v>
       </c>
@@ -4541,7 +4538,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="66" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
         <v>72</v>
       </c>
@@ -4555,7 +4552,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="67" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
         <v>49</v>
       </c>
@@ -4568,7 +4565,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="68" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
         <v>119</v>
       </c>
@@ -4581,7 +4578,7 @@
       </c>
       <c r="E68" s="112"/>
     </row>
-    <row r="69" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
         <v>73</v>
       </c>
@@ -4592,7 +4589,7 @@
       </c>
       <c r="E69" s="112"/>
     </row>
-    <row r="70" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
         <v>74</v>
       </c>
@@ -4604,7 +4601,7 @@
       </c>
       <c r="E70" s="112"/>
     </row>
-    <row r="71" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
         <v>75</v>
       </c>
@@ -4617,7 +4614,7 @@
       </c>
       <c r="E71" s="112"/>
     </row>
-    <row r="72" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B72" s="247" t="s">
         <v>76</v>
       </c>
@@ -4629,7 +4626,7 @@
       </c>
       <c r="E72" s="250"/>
     </row>
-    <row r="73" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
         <v>39</v>
       </c>
@@ -4637,7 +4634,7 @@
         <v>1427805</v>
       </c>
     </row>
-    <row r="74" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
         <v>40</v>
       </c>
@@ -4645,19 +4642,19 @@
         <v>287697</v>
       </c>
     </row>
-    <row r="75" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C75" s="59"/>
     </row>
-    <row r="76" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B76" s="86" t="s">
         <v>43</v>
       </c>
       <c r="C76" s="120"/>
     </row>
-    <row r="77" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="80" t="s">
         <v>16</v>
       </c>
@@ -4665,13 +4662,13 @@
         <v>3516809</v>
       </c>
     </row>
-    <row r="78" spans="2:5" ht="15" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
         <v>62</v>
       </c>
       <c r="C78" s="59"/>
     </row>
-    <row r="79" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
         <v>64</v>
       </c>
@@ -4679,19 +4676,19 @@
         <v>319420</v>
       </c>
     </row>
-    <row r="80" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
         <v>66</v>
       </c>
       <c r="C80" s="59"/>
     </row>
-    <row r="81" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B81" s="86" t="s">
         <v>67</v>
       </c>
       <c r="C81" s="120"/>
     </row>
-    <row r="82" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
         <v>85</v>
       </c>
@@ -4699,68 +4696,68 @@
         <v>473357</v>
       </c>
     </row>
-    <row r="83" spans="2:8" ht="15" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C83" s="59">
         <v>12890860</v>
       </c>
     </row>
-    <row r="84" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
         <v>91</v>
       </c>
       <c r="C84" s="59"/>
     </row>
-    <row r="85" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
         <v>93</v>
       </c>
       <c r="C85" s="59"/>
     </row>
-    <row r="86" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C86" s="198">
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C87" s="237" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="89" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
-        <v>129</v>
-      </c>
-      <c r="C89" s="267">
+        <v>128</v>
+      </c>
+      <c r="C89" s="268">
         <f>C24</f>
         <v>45382</v>
       </c>
-      <c r="D89" s="267"/>
+      <c r="D89" s="268"/>
       <c r="E89" s="89" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F89" s="50" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H89" s="31"/>
     </row>
-    <row r="90" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="90" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B90" s="12" t="str">
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="C90" s="268" t="s">
+      <c r="C90" s="269" t="s">
         <v>101</v>
       </c>
-      <c r="D90" s="268"/>
+      <c r="D90" s="269"/>
       <c r="E90" s="236" t="s">
         <v>102</v>
       </c>
@@ -4768,9 +4765,9 @@
         <v>102</v>
       </c>
     </row>
-    <row r="91" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
@@ -4786,7 +4783,7 @@
         <v>15325962</v>
       </c>
     </row>
-    <row r="92" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B92" s="104" t="s">
         <v>106</v>
       </c>
@@ -4807,9 +4804,9 @@
         <v>11151623</v>
       </c>
     </row>
-    <row r="93" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4828,9 +4825,9 @@
         <v>2534914.1148000001</v>
       </c>
     </row>
-    <row r="94" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>124</v>
+        <v>264</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4846,12 +4843,12 @@
         <v>59596</v>
       </c>
     </row>
-    <row r="95" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C95" s="77">
-        <f>C33-C32</f>
+        <f>ABS(MAX(C33,0)-C32)</f>
         <v>219833</v>
       </c>
       <c r="D95" s="160">
@@ -4867,12 +4864,12 @@
         <v>153259.62</v>
       </c>
     </row>
-    <row r="96" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
         <v>110</v>
       </c>
       <c r="C96" s="77">
-        <f>C31</f>
+        <f>MAX(C31,0)</f>
         <v>626583</v>
       </c>
       <c r="D96" s="160">
@@ -4885,12 +4882,12 @@
         <v>306519.24</v>
       </c>
     </row>
-    <row r="97" spans="2:7" ht="14" x14ac:dyDescent="0.15">
+    <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C97" s="77">
-        <f>MAX(C30,0)</f>
+        <f>MAX(C30,0)/(1-C16)</f>
         <v>0</v>
       </c>
       <c r="D97" s="160">
@@ -4903,18 +4900,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:7" ht="14" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C98" s="238">
         <f>C44</f>
         <v>1.3599999999999999</v>
       </c>
-      <c r="D98" s="167">
-        <f>C98/C96</f>
-        <v>2.1705025511384762E-6</v>
-      </c>
+      <c r="D98" s="267"/>
       <c r="E98" s="255">
         <v>1</v>
       </c>
@@ -4993,23 +4987,23 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.6640625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="14.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.83203125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="14.796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.796875" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.33203125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="14.83203125" style="1" customWidth="1"/>
+    <col min="7" max="8" width="14.796875" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B1" s="87"/>
       <c r="C1" s="87"/>
       <c r="D1" s="87"/>
@@ -5018,7 +5012,7 @@
       <c r="G1" s="87"/>
       <c r="H1" s="87"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -5033,68 +5027,68 @@
       <c r="G2" s="86"/>
       <c r="H2" s="86"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="C3" s="273" t="str">
+        <v>196</v>
+      </c>
+      <c r="C3" s="274" t="str">
         <f>Inputs!C4</f>
         <v>0590.HK</v>
       </c>
-      <c r="D3" s="274"/>
+      <c r="D3" s="275"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>14.859999656677246</v>
+        <v>14.74</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>199</v>
-      </c>
-      <c r="C4" s="275" t="str">
+        <v>197</v>
+      </c>
+      <c r="C4" s="276" t="str">
         <f>Inputs!C5</f>
         <v>六福珠宝</v>
       </c>
-      <c r="D4" s="276"/>
+      <c r="D4" s="277"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="279">
+      <c r="G4" s="280">
         <f>Inputs!C10</f>
         <v>587107850</v>
       </c>
-      <c r="H4" s="279"/>
+      <c r="H4" s="280"/>
       <c r="I4" s="39"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C5" s="277">
+        <v>164</v>
+      </c>
+      <c r="C5" s="278">
         <f>Inputs!C6</f>
         <v>45593</v>
       </c>
-      <c r="D5" s="278"/>
+      <c r="D5" s="279"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="G5" s="271">
+      <c r="G5" s="272">
         <f>G3*G4/1000000</f>
-        <v>8724.4224494325154</v>
-      </c>
-      <c r="H5" s="271"/>
+        <v>8653.9697090000009</v>
+      </c>
+      <c r="H5" s="272"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="87" t="s">
         <v>4</v>
       </c>
@@ -5113,16 +5107,16 @@
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="272" t="str">
+      <c r="G6" s="273" t="str">
         <f>Inputs!C11</f>
         <v>HKD</v>
       </c>
-      <c r="H6" s="272"/>
+      <c r="H6" s="273"/>
       <c r="I6" s="38"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C7" s="188" t="str">
         <f>Inputs!C8</f>
@@ -5144,43 +5138,43 @@
         <v>HKD</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C10" s="173">
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C11" s="174">
         <v>5.3099999999999994E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C12" s="175">
         <v>0.06</v>
@@ -5190,32 +5184,32 @@
       </c>
       <c r="F12" s="110"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C14" s="173">
         <v>2.1309999999999999E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C15" s="173">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C16" s="174">
         <v>0.16</v>
@@ -5225,22 +5219,22 @@
         <v>HK</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C17" s="176">
         <v>7.1999999999999995E-2</v>
       </c>
       <c r="D17" s="177"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="142" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>52</v>
@@ -5248,29 +5242,29 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="137" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C20" s="172">
         <f>Fin_Analysis!I75</f>
         <v>0.72762956087193742</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G20" s="173">
         <v>0.15</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C21" s="172">
         <f>Fin_Analysis!I77</f>
@@ -5279,155 +5273,155 @@
       <c r="F21" s="87"/>
       <c r="G21" s="29"/>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="137" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C22" s="172">
         <f>Fin_Analysis!I78</f>
         <v>0</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="137" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C23" s="172">
         <f>Fin_Analysis!I80</f>
         <v>0.02</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G23" s="178">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.67820985905147235</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.67273307896253531</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C24" s="172">
         <f>Fin_Analysis!I81</f>
         <v>3.8885650375487034E-3</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G24" s="179">
         <f>(Fin_Analysis!H86*G7)/G3</f>
-        <v>9.6285745419702862E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>9.7069616274063589E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C25" s="172">
         <f>Fin_Analysis!I82</f>
         <v>0.01</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G25" s="172">
         <f>Fin_Analysis!I88</f>
         <v>0.76879736972424439</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C26" s="172">
         <f>Fin_Analysis!I83</f>
         <v>7.3081874090513851E-2</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>7.4024227820605776E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>7.4626865671641798E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
       <c r="B28" s="90" t="s">
         <v>7</v>
       </c>
       <c r="C28" s="89" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>245</v>
-      </c>
-      <c r="G28" s="269" t="s">
-        <v>246</v>
-      </c>
-      <c r="H28" s="269"/>
-    </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>242</v>
+      </c>
+      <c r="G28" s="270" t="s">
+        <v>265</v>
+      </c>
+      <c r="H28" s="270"/>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>12.395440410984637</v>
+        <v>12.431861826906614</v>
       </c>
       <c r="D29" s="129">
-        <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>24.850949179995109</v>
+        <f>G29*(1+G20)</f>
+        <v>28.681270013074275</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>14.687646459631321</v>
-      </c>
-      <c r="G29" s="270">
-        <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!E100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!E103,Fin_Analysis!E106))</f>
-        <v>12.395440410984637</v>
-      </c>
-      <c r="H29" s="270"/>
-    </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>14.736409777527648</v>
+      </c>
+      <c r="G29" s="271">
+        <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
+        <v>24.940234793977634</v>
+      </c>
+      <c r="H29" s="271"/>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C31"/>
     </row>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="197" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C32" s="225"/>
     </row>
-    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C33" s="246" t="str">
         <f>Inputs!C17</f>
         <v>Strongly agree</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C34" s="226" t="str">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
@@ -5435,962 +5429,962 @@
         <v>agree</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="197" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C35" s="225"/>
     </row>
-    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C36" s="246" t="str">
         <f>Inputs!C18</f>
         <v>unclear</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C37" s="246" t="str">
         <f>Inputs!C19</f>
         <v>agree</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="197" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C38" s="225"/>
     </row>
-    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C39" s="246" t="str">
         <f>Inputs!C20</f>
         <v>agree</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C40" s="246" t="str">
         <f>Inputs!C21</f>
         <v>Strongly agree</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41"/>
       <c r="B41"/>
       <c r="C41"/>
     </row>
-    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C42"/>
     </row>
-    <row r="43" spans="1:3" ht="70" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="227" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C43" s="245" t="str">
         <f>Inputs!C22</f>
         <v>Consumer Monopoly</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="G28:H28"/>
@@ -6462,13 +6456,13 @@
   </sheetPr>
   <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="H15" sqref="H15"/>
+      <selection pane="topRight" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" style="1" customWidth="1"/>
@@ -6476,7 +6470,7 @@
     <col min="14" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="13"/>
       <c r="B1" s="14"/>
       <c r="C1" s="15"/>
@@ -6484,7 +6478,7 @@
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="16"/>
       <c r="B2" s="6" t="s">
         <v>9</v>
@@ -6492,16 +6486,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="149" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F2" s="119" t="s">
+        <v>204</v>
+      </c>
+      <c r="G2" s="149" t="s">
+        <v>205</v>
+      </c>
+      <c r="H2" s="148" t="s">
         <v>206</v>
-      </c>
-      <c r="G2" s="149" t="s">
-        <v>207</v>
-      </c>
-      <c r="H2" s="148" t="s">
-        <v>208</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6509,7 +6503,7 @@
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
       <c r="B3" s="103" t="s">
         <v>10</v>
@@ -6519,7 +6513,7 @@
         <v>45382</v>
       </c>
       <c r="E3" s="147" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F3" s="85">
         <f>H14</f>
@@ -6538,7 +6532,7 @@
       <c r="L3" s="87"/>
       <c r="M3" s="87"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
       <c r="B4" s="103" t="s">
         <v>11</v>
@@ -6552,7 +6546,7 @@
         <v>HKD</v>
       </c>
       <c r="E4" s="147" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F4" s="93">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6560,10 +6554,10 @@
       </c>
       <c r="J4" s="87"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -6610,7 +6604,7 @@
         <v>41729</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
       <c r="B6" s="94" t="s">
         <v>12</v>
@@ -6661,7 +6655,7 @@
       </c>
       <c r="N6" s="87"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
       <c r="B7" s="96" t="s">
         <v>13</v>
@@ -6712,7 +6706,7 @@
       </c>
       <c r="N7" s="87"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="97" t="s">
         <v>106</v>
@@ -6763,7 +6757,7 @@
       </c>
       <c r="N8" s="87"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="98" t="s">
         <v>103</v>
@@ -6814,7 +6808,7 @@
       </c>
       <c r="N9" s="87"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="97" t="s">
         <v>104</v>
@@ -6865,7 +6859,7 @@
       </c>
       <c r="N10" s="87"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="97" t="s">
         <v>107</v>
@@ -6916,10 +6910,10 @@
       </c>
       <c r="N11" s="87"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C12" s="200">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6967,10 +6961,10 @@
       </c>
       <c r="N12" s="87"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="229" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C13" s="230">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -7018,10 +7012,10 @@
       </c>
       <c r="N13" s="87"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="229" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C14" s="231">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -7069,10 +7063,10 @@
       </c>
       <c r="N14" s="87"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="232" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C15" s="233">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7120,7 +7114,7 @@
       </c>
       <c r="N15" s="87"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="97" t="s">
         <v>110</v>
@@ -7171,10 +7165,10 @@
       </c>
       <c r="N16" s="87"/>
     </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>124</v>
+        <v>264</v>
       </c>
       <c r="C17" s="200">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7222,7 +7216,7 @@
       </c>
       <c r="N17" s="87"/>
     </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="94" t="s">
         <v>99</v>
@@ -7273,7 +7267,7 @@
       </c>
       <c r="N18" s="87"/>
     </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="97" t="s">
         <v>105</v>
@@ -7324,10 +7318,10 @@
       </c>
       <c r="N19" s="87"/>
     </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C20" s="153">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -7375,7 +7369,7 @@
       </c>
       <c r="N20" s="87"/>
     </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="97" t="s">
         <v>108</v>
@@ -7426,7 +7420,7 @@
       </c>
       <c r="N21" s="87"/>
     </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="98" t="s">
         <v>112</v>
@@ -7477,7 +7471,7 @@
       </c>
       <c r="N22" s="87"/>
     </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
       <c r="B23" s="100" t="s">
         <v>113</v>
@@ -7528,7 +7522,7 @@
       </c>
       <c r="N23" s="87"/>
     </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
       <c r="B24" s="101" t="s">
         <v>114</v>
@@ -7579,10 +7573,10 @@
       </c>
       <c r="N24" s="87"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="235" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C25" s="234">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
@@ -7630,10 +7624,10 @@
       </c>
       <c r="N25" s="87"/>
     </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -7681,7 +7675,7 @@
       </c>
       <c r="N26" s="87"/>
     </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
       <c r="B27" s="94" t="s">
         <v>14</v>
@@ -7732,7 +7726,7 @@
       </c>
       <c r="N27" s="87"/>
     </row>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="94" t="s">
         <v>15</v>
@@ -7783,7 +7777,7 @@
       </c>
       <c r="N28" s="87"/>
     </row>
-    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
         <v>117</v>
@@ -7834,10 +7828,10 @@
       </c>
       <c r="N29" s="87"/>
     </row>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C30" s="65">
         <f>Fin_Analysis!C18</f>
@@ -7885,7 +7879,7 @@
       </c>
       <c r="N30" s="87"/>
     </row>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="94" t="s">
         <v>16</v>
@@ -7936,7 +7930,7 @@
       </c>
       <c r="N31" s="87"/>
     </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
         <v>116</v>
@@ -7987,7 +7981,7 @@
       </c>
       <c r="N32" s="87"/>
     </row>
-    <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="94" t="s">
         <v>17</v>
@@ -8038,7 +8032,7 @@
       </c>
       <c r="N33" s="87"/>
     </row>
-    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="94" t="s">
         <v>18</v>
@@ -8089,7 +8083,7 @@
       </c>
       <c r="N34" s="87"/>
     </row>
-    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="94" t="s">
         <v>19</v>
@@ -8140,10 +8134,10 @@
       </c>
       <c r="N35" s="87"/>
     </row>
-    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C36" s="65">
         <f>Fin_Analysis!D3</f>
@@ -8191,10 +8185,10 @@
       </c>
       <c r="N36" s="87"/>
     </row>
-    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!D4</f>
@@ -8242,10 +8236,10 @@
       </c>
       <c r="N37" s="87"/>
     </row>
-    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="94" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C38" s="65">
         <f>Fin_Analysis!C63</f>
@@ -8293,10 +8287,10 @@
       </c>
       <c r="N38" s="87"/>
     </row>
-    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="4"/>
       <c r="B39" s="94" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C39" s="65">
         <f>Fin_Analysis!C68</f>
@@ -8344,10 +8338,10 @@
       </c>
       <c r="N39" s="87"/>
     </row>
-    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C40" s="156">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
@@ -8395,10 +8389,10 @@
       </c>
       <c r="N40" s="87"/>
     </row>
-    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8413,7 +8407,7 @@
       <c r="M41" s="54"/>
       <c r="N41" s="87"/>
     </row>
-    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="95" t="s">
         <v>98</v>
@@ -8464,10 +8458,10 @@
       </c>
       <c r="N42" s="87"/>
     </row>
-    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C43" s="154">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8515,7 +8509,7 @@
       </c>
       <c r="N43" s="87"/>
     </row>
-    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
         <v>109</v>
@@ -8566,7 +8560,7 @@
       </c>
       <c r="N44" s="87"/>
     </row>
-    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
         <v>122</v>
@@ -8617,10 +8611,10 @@
       </c>
       <c r="N45" s="87"/>
     </row>
-    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C46" s="154">
         <f>IF(C6="","",MAX(C12,0)/C6)</f>
@@ -8668,10 +8662,10 @@
       </c>
       <c r="N46" s="87"/>
     </row>
-    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C47" s="154">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -8719,10 +8713,10 @@
       </c>
       <c r="N47" s="87"/>
     </row>
-    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
       <c r="B48" s="94" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C48" s="154">
         <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
@@ -8770,10 +8764,10 @@
       </c>
       <c r="N48" s="87"/>
     </row>
-    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -8788,10 +8782,10 @@
       <c r="M49" s="36"/>
       <c r="N49" s="87"/>
     </row>
-    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="95" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C50" s="157">
         <f t="shared" ref="C50:M50" si="41">IF(C29="","",C29/C6)</f>
@@ -8839,10 +8833,10 @@
       </c>
       <c r="N50" s="87"/>
     </row>
-    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C51" s="154">
         <f t="shared" ref="C51:M51" si="42">IF(C30="","",C30/C6)</f>
@@ -8890,10 +8884,10 @@
       </c>
       <c r="N51" s="87"/>
     </row>
-    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
       <c r="B52" s="102" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
@@ -8907,7 +8901,7 @@
       <c r="L52" s="36"/>
       <c r="M52" s="36"/>
     </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="95" t="s">
         <v>20</v>
@@ -8957,7 +8951,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
       <c r="B54" s="94" t="s">
         <v>121</v>
@@ -9007,7 +9001,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="94" t="s">
         <v>123</v>
@@ -9057,7 +9051,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
       <c r="B56" s="98" t="s">
         <v>21</v>
@@ -9107,1260 +9101,1260 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
     </row>
-    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
     </row>
-    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
     </row>
-    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
     </row>
-    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
     </row>
-    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="4"/>
     </row>
-    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="4"/>
     </row>
-    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="4"/>
     </row>
-    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="4"/>
     </row>
-    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="4"/>
     </row>
-    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="4"/>
     </row>
-    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="4"/>
     </row>
-    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="4"/>
     </row>
-    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="4"/>
     </row>
-    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="4"/>
     </row>
-    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="4"/>
     </row>
-    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="4"/>
     </row>
-    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="4"/>
     </row>
-    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="4"/>
     </row>
-    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="4"/>
     </row>
-    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="4"/>
     </row>
-    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="4"/>
     </row>
-    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="4"/>
     </row>
-    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="4"/>
     </row>
-    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="4"/>
     </row>
-    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="4"/>
     </row>
-    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="4"/>
     </row>
-    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="4"/>
     </row>
-    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A86" s="4"/>
     </row>
-    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A87" s="4"/>
     </row>
-    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A88" s="4"/>
     </row>
-    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="4"/>
     </row>
-    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A90" s="4"/>
     </row>
-    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="4"/>
     </row>
-    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A92" s="4"/>
     </row>
-    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A93" s="4"/>
     </row>
-    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="4"/>
     </row>
-    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A95" s="4"/>
     </row>
-    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="4"/>
     </row>
-    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A97" s="4"/>
     </row>
-    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A98" s="4"/>
     </row>
-    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A99" s="4"/>
     </row>
-    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A100" s="4"/>
     </row>
-    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A101" s="4"/>
     </row>
-    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A102" s="4"/>
     </row>
-    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A103" s="4"/>
     </row>
-    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A104" s="4"/>
     </row>
-    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A105" s="4"/>
     </row>
-    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A106" s="4"/>
     </row>
-    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A107" s="4"/>
     </row>
-    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A108" s="4"/>
     </row>
-    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A109" s="4"/>
     </row>
-    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A110" s="4"/>
     </row>
-    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A111" s="4"/>
     </row>
-    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A112" s="4"/>
     </row>
-    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A113" s="4"/>
     </row>
-    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A114" s="4"/>
     </row>
-    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A115" s="4"/>
     </row>
-    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A116" s="4"/>
     </row>
-    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A117" s="4"/>
     </row>
-    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A118" s="4"/>
     </row>
-    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A119" s="4"/>
     </row>
-    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A120" s="4"/>
     </row>
-    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A121" s="4"/>
     </row>
-    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A122" s="4"/>
     </row>
-    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A123" s="4"/>
     </row>
-    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A124" s="4"/>
     </row>
-    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A125" s="4"/>
     </row>
-    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A126" s="4"/>
     </row>
-    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A127" s="4"/>
     </row>
-    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A128" s="4"/>
     </row>
-    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A129" s="4"/>
     </row>
-    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A130" s="4"/>
     </row>
-    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A131" s="4"/>
     </row>
-    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A132" s="4"/>
     </row>
-    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A133" s="4"/>
     </row>
-    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A134" s="4"/>
     </row>
-    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A135" s="4"/>
     </row>
-    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A136" s="4"/>
     </row>
-    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A137" s="4"/>
     </row>
-    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A138" s="4"/>
     </row>
-    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A139" s="4"/>
     </row>
-    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A140" s="4"/>
     </row>
-    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A141" s="4"/>
     </row>
-    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A142" s="4"/>
     </row>
-    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A143" s="4"/>
     </row>
-    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A144" s="4"/>
     </row>
-    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A145" s="4"/>
     </row>
-    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A146" s="4"/>
     </row>
-    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A147" s="4"/>
     </row>
-    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A148" s="4"/>
     </row>
-    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A149" s="4"/>
     </row>
-    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A150" s="4"/>
     </row>
-    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A151" s="4"/>
     </row>
-    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A152" s="4"/>
     </row>
-    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A153" s="4"/>
     </row>
-    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A154" s="4"/>
     </row>
-    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A155" s="4"/>
     </row>
-    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A156" s="4"/>
     </row>
-    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A157" s="4"/>
     </row>
-    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A158" s="4"/>
     </row>
-    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A159" s="4"/>
     </row>
-    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A160" s="4"/>
     </row>
-    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A161" s="4"/>
     </row>
-    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A162" s="4"/>
     </row>
-    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A163" s="4"/>
     </row>
-    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A164" s="4"/>
     </row>
-    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A165" s="4"/>
     </row>
-    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A166" s="4"/>
     </row>
-    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A167" s="4"/>
     </row>
-    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A168" s="4"/>
     </row>
-    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A169" s="4"/>
     </row>
-    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A170" s="4"/>
     </row>
-    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A171" s="4"/>
     </row>
-    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A172" s="4"/>
     </row>
-    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A173" s="4"/>
     </row>
-    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A174" s="4"/>
     </row>
-    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A175" s="4"/>
     </row>
-    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A176" s="4"/>
     </row>
-    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A177" s="4"/>
     </row>
-    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A178" s="4"/>
     </row>
-    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A179" s="4"/>
     </row>
-    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A180" s="4"/>
     </row>
-    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A181" s="4"/>
     </row>
-    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A182" s="4"/>
     </row>
-    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A183" s="4"/>
     </row>
-    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A184" s="4"/>
     </row>
-    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A185" s="4"/>
     </row>
-    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A186" s="4"/>
     </row>
-    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A187" s="4"/>
     </row>
-    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A188" s="4"/>
     </row>
-    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A189" s="4"/>
     </row>
-    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A190" s="4"/>
     </row>
-    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A191" s="4"/>
     </row>
-    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A192" s="4"/>
     </row>
-    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A193" s="4"/>
     </row>
-    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A194" s="4"/>
     </row>
-    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A195" s="4"/>
     </row>
-    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A196" s="4"/>
     </row>
-    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A197" s="4"/>
     </row>
-    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A198" s="4"/>
     </row>
-    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A199" s="4"/>
     </row>
-    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A200" s="4"/>
     </row>
-    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A201" s="4"/>
     </row>
-    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A202" s="4"/>
     </row>
-    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A203" s="4"/>
     </row>
-    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A204" s="4"/>
     </row>
-    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A205" s="4"/>
     </row>
-    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A206" s="4"/>
     </row>
-    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A207" s="4"/>
     </row>
-    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A208" s="4"/>
     </row>
-    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A209" s="4"/>
     </row>
-    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A210" s="4"/>
     </row>
-    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A211" s="4"/>
     </row>
-    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A212" s="4"/>
     </row>
-    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A213" s="4"/>
     </row>
-    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A214" s="4"/>
     </row>
-    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A215" s="4"/>
     </row>
-    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A216" s="4"/>
     </row>
-    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A217" s="4"/>
     </row>
-    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A218" s="4"/>
     </row>
-    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A219" s="4"/>
     </row>
-    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A220" s="4"/>
     </row>
-    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A221" s="4"/>
     </row>
-    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A222" s="4"/>
     </row>
-    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A223" s="4"/>
     </row>
-    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A224" s="4"/>
     </row>
-    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A225" s="4"/>
     </row>
-    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A226" s="4"/>
     </row>
-    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A227" s="4"/>
     </row>
-    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A228" s="4"/>
     </row>
-    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A229" s="4"/>
     </row>
-    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A230" s="4"/>
     </row>
-    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A231" s="4"/>
     </row>
-    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A232" s="4"/>
     </row>
-    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A233" s="4"/>
     </row>
-    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A234" s="4"/>
     </row>
-    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A235" s="4"/>
     </row>
-    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A236" s="4"/>
     </row>
-    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A237" s="4"/>
     </row>
-    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A238" s="4"/>
     </row>
-    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A239" s="4"/>
     </row>
-    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A240" s="4"/>
     </row>
-    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A241" s="4"/>
     </row>
-    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A242" s="4"/>
     </row>
-    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A243" s="4"/>
     </row>
-    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A244" s="4"/>
     </row>
-    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A245" s="4"/>
     </row>
-    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A246" s="4"/>
     </row>
-    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M23 C27:M40">
@@ -10401,10 +10395,10 @@
   <dimension ref="A2:K108"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+      <selection activeCell="H103" sqref="H103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.6640625" style="1" customWidth="1"/>
@@ -10412,11 +10406,11 @@
     <col min="7" max="7" width="2" style="1" customWidth="1"/>
     <col min="8" max="9" width="18.6640625" style="1" customWidth="1"/>
     <col min="10" max="10" width="4.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="38.83203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="38.796875" style="1" customWidth="1"/>
     <col min="12" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
         <v>22</v>
@@ -10432,7 +10426,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
         <v>23</v>
       </c>
@@ -10456,7 +10450,7 @@
       </c>
       <c r="K3" s="24"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
         <v>25</v>
       </c>
@@ -10472,7 +10466,7 @@
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C5" s="87"/>
       <c r="D5" s="87"/>
       <c r="E5" s="11" t="s">
@@ -10487,7 +10481,7 @@
       </c>
       <c r="K5" s="24"/>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="20" t="s">
         <v>27</v>
       </c>
@@ -10512,7 +10506,7 @@
       <c r="J6" s="87"/>
       <c r="K6" s="24"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B7" s="19" t="s">
         <v>29</v>
       </c>
@@ -10535,13 +10529,13 @@
       <c r="J7" s="87"/>
       <c r="K7" s="33"/>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C8" s="87"/>
       <c r="D8" s="87"/>
       <c r="E8" s="87"/>
       <c r="K8" s="24"/>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
         <v>32</v>
@@ -10561,7 +10555,7 @@
       <c r="I9" s="86"/>
       <c r="K9" s="24"/>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
         <v>33</v>
       </c>
@@ -10569,7 +10563,7 @@
         <v>34</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>35</v>
@@ -10586,7 +10580,7 @@
       </c>
       <c r="K10" s="24"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
         <v>38</v>
       </c>
@@ -10614,9 +10608,9 @@
       <c r="J11" s="87"/>
       <c r="K11" s="24"/>
     </row>
-    <row r="12" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
@@ -10642,7 +10636,7 @@
       <c r="J12" s="87"/>
       <c r="K12" s="24"/>
     </row>
-    <row r="13" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
         <v>117</v>
       </c>
@@ -10670,7 +10664,7 @@
       <c r="J13" s="87"/>
       <c r="K13" s="26"/>
     </row>
-    <row r="14" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
         <v>42</v>
       </c>
@@ -10698,7 +10692,7 @@
       <c r="J14" s="87"/>
       <c r="K14" s="27"/>
     </row>
-    <row r="15" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
         <v>44</v>
       </c>
@@ -10725,9 +10719,9 @@
       </c>
       <c r="J15" s="87"/>
     </row>
-    <row r="16" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -10747,7 +10741,7 @@
       <c r="I16" s="40"/>
       <c r="J16" s="87"/>
     </row>
-    <row r="17" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
         <v>118</v>
       </c>
@@ -10769,7 +10763,7 @@
       <c r="I17" s="40"/>
       <c r="J17" s="87"/>
     </row>
-    <row r="18" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
         <v>47</v>
       </c>
@@ -10790,7 +10784,7 @@
       <c r="H18" s="87"/>
       <c r="I18" s="87"/>
     </row>
-    <row r="19" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
         <v>48</v>
       </c>
@@ -10815,7 +10809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
         <v>120</v>
       </c>
@@ -10842,7 +10836,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="40"/>
     </row>
-    <row r="21" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
         <v>50</v>
       </c>
@@ -10863,7 +10857,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
-    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
         <v>51</v>
       </c>
@@ -10889,7 +10883,7 @@
         <v>1801307</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C23" s="87"/>
       <c r="D23" s="87"/>
       <c r="E23" s="87"/>
@@ -10898,7 +10892,7 @@
       </c>
       <c r="G23" s="87"/>
     </row>
-    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
         <v>53</v>
       </c>
@@ -10920,7 +10914,7 @@
       </c>
       <c r="G24" s="87"/>
     </row>
-    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
         <v>55</v>
       </c>
@@ -10949,7 +10943,7 @@
         <v>1.9498263624780305</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
         <v>57</v>
       </c>
@@ -10982,7 +10976,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
         <v>59</v>
       </c>
@@ -11015,7 +11009,7 @@
         <v>Liquidity Issue!</v>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="78" t="s">
         <v>15</v>
       </c>
@@ -11045,7 +11039,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C29" s="87"/>
       <c r="D29" s="87"/>
       <c r="E29" s="87"/>
@@ -11057,7 +11051,7 @@
       <c r="I29" s="87"/>
       <c r="J29" s="87"/>
     </row>
-    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
         <v>61</v>
       </c>
@@ -11083,7 +11077,7 @@
       </c>
       <c r="J30" s="87"/>
     </row>
-    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
         <v>63</v>
       </c>
@@ -11110,7 +11104,7 @@
       </c>
       <c r="J31" s="87"/>
     </row>
-    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
         <v>65</v>
       </c>
@@ -11137,9 +11131,9 @@
       </c>
       <c r="J32" s="87"/>
     </row>
-    <row r="33" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -11167,7 +11161,7 @@
       </c>
       <c r="J33" s="87"/>
     </row>
-    <row r="34" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
         <v>68</v>
       </c>
@@ -11194,7 +11188,7 @@
       </c>
       <c r="J34" s="87"/>
     </row>
-    <row r="35" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
         <v>70</v>
       </c>
@@ -11220,7 +11214,7 @@
       </c>
       <c r="J35" s="87"/>
     </row>
-    <row r="36" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
         <v>72</v>
       </c>
@@ -11247,7 +11241,7 @@
       <c r="H36" s="87"/>
       <c r="I36" s="87"/>
     </row>
-    <row r="37" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
         <v>49</v>
       </c>
@@ -11274,7 +11268,7 @@
       <c r="H37" s="87"/>
       <c r="I37" s="87"/>
     </row>
-    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
         <v>119</v>
       </c>
@@ -11295,7 +11289,7 @@
       <c r="H38" s="87"/>
       <c r="I38" s="87"/>
     </row>
-    <row r="39" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
         <v>73</v>
       </c>
@@ -11316,7 +11310,7 @@
       <c r="H39" s="87"/>
       <c r="I39" s="87"/>
     </row>
-    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
         <v>74</v>
       </c>
@@ -11337,7 +11331,7 @@
       <c r="H40" s="87"/>
       <c r="I40" s="87"/>
     </row>
-    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
         <v>75</v>
       </c>
@@ -11358,7 +11352,7 @@
       <c r="H41" s="87"/>
       <c r="I41" s="87"/>
     </row>
-    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
         <v>76</v>
       </c>
@@ -11384,7 +11378,7 @@
         <v>153937</v>
       </c>
     </row>
-    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C43" s="87"/>
       <c r="D43" s="87"/>
       <c r="E43" s="87"/>
@@ -11393,7 +11387,7 @@
       <c r="H43" s="87"/>
       <c r="I43" s="87"/>
     </row>
-    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
         <v>77</v>
       </c>
@@ -11412,7 +11406,7 @@
       <c r="F44" s="72"/>
       <c r="G44" s="87"/>
     </row>
-    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
         <v>79</v>
       </c>
@@ -11431,7 +11425,7 @@
       <c r="F45" s="72"/>
       <c r="G45" s="87"/>
     </row>
-    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
         <v>80</v>
       </c>
@@ -11461,7 +11455,7 @@
         <v>Liquidity Problem!</v>
       </c>
     </row>
-    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
         <v>82</v>
       </c>
@@ -11491,7 +11485,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
         <v>84</v>
       </c>
@@ -11518,7 +11512,7 @@
       </c>
       <c r="J48" s="8"/>
     </row>
-    <row r="49" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B49" s="3" t="s">
         <v>14</v>
       </c>
@@ -11545,20 +11539,20 @@
       </c>
       <c r="J49" s="87"/>
     </row>
-    <row r="50" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C50" s="87"/>
       <c r="D50" s="87"/>
       <c r="E50" s="87"/>
       <c r="I50" s="87"/>
     </row>
-    <row r="51" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
         <v>87</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
-    <row r="52" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
         <v>88</v>
       </c>
@@ -11575,7 +11569,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
         <v>89</v>
       </c>
@@ -11596,7 +11590,7 @@
       <c r="I53" s="41"/>
       <c r="K53" s="33"/>
     </row>
-    <row r="54" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C54" s="87"/>
       <c r="D54" s="87"/>
       <c r="E54" s="87"/>
@@ -11605,9 +11599,9 @@
       <c r="I54" s="87"/>
       <c r="K54" s="33"/>
     </row>
-    <row r="55" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11616,53 +11610,53 @@
       <c r="I55" s="87"/>
       <c r="K55" s="33"/>
     </row>
-    <row r="56" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
         <v>90</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="280">
+      <c r="D56" s="281">
         <f>I15+I34</f>
         <v>2034922</v>
       </c>
-      <c r="E56" s="278"/>
+      <c r="E56" s="279"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
       <c r="K56" s="33"/>
     </row>
-    <row r="57" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
         <v>91</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="279">
+      <c r="D57" s="280">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="278"/>
+      <c r="E57" s="279"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
         <v>93</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="279">
+      <c r="D58" s="280">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="278"/>
+      <c r="E58" s="279"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
       <c r="K58" s="33"/>
     </row>
-    <row r="59" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C59" s="87"/>
       <c r="D59" s="87"/>
       <c r="E59" s="87"/>
@@ -11671,9 +11665,9 @@
       <c r="I59" s="87"/>
       <c r="K59" s="33"/>
     </row>
-    <row r="60" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
@@ -11685,7 +11679,7 @@
       <c r="I60" s="87"/>
       <c r="K60" s="33"/>
     </row>
-    <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
         <v>95</v>
       </c>
@@ -11706,9 +11700,9 @@
       <c r="I61" s="87"/>
       <c r="K61" s="33"/>
     </row>
-    <row r="62" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C62" s="117">
         <f>C11+C30</f>
@@ -11727,9 +11721,9 @@
       <c r="I62" s="87"/>
       <c r="K62" s="33"/>
     </row>
-    <row r="63" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11748,9 +11742,9 @@
       <c r="I63" s="87"/>
       <c r="K63" s="33"/>
     </row>
-    <row r="64" spans="2:11" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C64" s="209"/>
       <c r="D64" s="209"/>
@@ -11763,9 +11757,9 @@
       <c r="I64" s="87"/>
       <c r="K64" s="33"/>
     </row>
-    <row r="65" spans="1:11" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11784,7 +11778,7 @@
       <c r="I65" s="87"/>
       <c r="K65" s="33"/>
     </row>
-    <row r="66" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3"/>
       <c r="C66" s="68"/>
       <c r="D66" s="29"/>
@@ -11794,9 +11788,9 @@
       <c r="I66" s="87"/>
       <c r="K66" s="33"/>
     </row>
-    <row r="67" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
@@ -11808,9 +11802,9 @@
       <c r="I67" s="87"/>
       <c r="K67" s="33"/>
     </row>
-    <row r="68" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11829,9 +11823,9 @@
       <c r="I68" s="87"/>
       <c r="K68" s="33"/>
     </row>
-    <row r="69" spans="1:11" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C69" s="209"/>
       <c r="D69" s="209"/>
@@ -11844,9 +11838,9 @@
       <c r="I69" s="87"/>
       <c r="K69" s="33"/>
     </row>
-    <row r="70" spans="1:11" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11865,50 +11859,50 @@
       <c r="I70" s="87"/>
       <c r="K70" s="33"/>
     </row>
-    <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
-        <v>129</v>
-      </c>
-      <c r="C72" s="267">
+        <v>128</v>
+      </c>
+      <c r="C72" s="268">
         <f>Data!C5</f>
         <v>45382</v>
       </c>
-      <c r="D72" s="267"/>
-      <c r="E72" s="281" t="s">
-        <v>210</v>
-      </c>
-      <c r="F72" s="281"/>
-      <c r="H72" s="281" t="s">
-        <v>209</v>
-      </c>
-      <c r="I72" s="281"/>
+      <c r="D72" s="268"/>
+      <c r="E72" s="282" t="s">
+        <v>208</v>
+      </c>
+      <c r="F72" s="282"/>
+      <c r="H72" s="282" t="s">
+        <v>207</v>
+      </c>
+      <c r="I72" s="282"/>
       <c r="K72" s="50" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B73" s="12" t="str">
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="C73" s="268" t="s">
+      <c r="C73" s="269" t="s">
         <v>101</v>
       </c>
-      <c r="D73" s="268"/>
-      <c r="E73" s="282" t="s">
+      <c r="D73" s="269"/>
+      <c r="E73" s="283" t="s">
         <v>102</v>
       </c>
-      <c r="F73" s="268"/>
-      <c r="H73" s="282" t="s">
+      <c r="F73" s="269"/>
+      <c r="H73" s="283" t="s">
         <v>102</v>
       </c>
-      <c r="I73" s="268"/>
+      <c r="I73" s="269"/>
       <c r="K73" s="24"/>
     </row>
-    <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
@@ -11927,7 +11921,7 @@
       <c r="I74" s="210"/>
       <c r="K74" s="24"/>
     </row>
-    <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="104" t="s">
         <v>106</v>
       </c>
@@ -11957,7 +11951,7 @@
       </c>
       <c r="K75" s="24"/>
     </row>
-    <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
         <v>96</v>
       </c>
@@ -11978,9 +11972,9 @@
       <c r="I76" s="211"/>
       <c r="K76" s="24"/>
     </row>
-    <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -12008,9 +12002,9 @@
       </c>
       <c r="K77" s="24"/>
     </row>
-    <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -12038,9 +12032,9 @@
       </c>
       <c r="K78" s="24"/>
     </row>
-    <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="257" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C79" s="258">
         <f>C76-C77-C78</f>
@@ -12069,7 +12063,7 @@
       </c>
       <c r="K79" s="24"/>
     </row>
-    <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
         <v>110</v>
       </c>
@@ -12098,12 +12092,12 @@
         <v>0.02</v>
       </c>
       <c r="K80" s="182" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>124</v>
+        <v>264</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12131,12 +12125,12 @@
       </c>
       <c r="K81" s="24"/>
     </row>
-    <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C82" s="77">
-        <f>MAX(MAX(Data!C21,0)-MAX(Data!C19,0),0)</f>
+        <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>219833</v>
       </c>
       <c r="D82" s="160">
@@ -12161,9 +12155,9 @@
       </c>
       <c r="K82" s="24"/>
     </row>
-    <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C83" s="164">
         <f>C79-C81-C82-C80</f>
@@ -12191,7 +12185,7 @@
       </c>
       <c r="K83" s="24"/>
     </row>
-    <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
         <v>97</v>
       </c>
@@ -12212,9 +12206,9 @@
       </c>
       <c r="K84" s="24"/>
     </row>
-    <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="264" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C85" s="258">
         <f>C83*(1-I84)</f>
@@ -12243,9 +12237,9 @@
       </c>
       <c r="K85" s="24"/>
     </row>
-    <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C86" s="168">
         <f>C85*Data!C4/Common_Shares</f>
@@ -12264,30 +12258,30 @@
       <c r="I86" s="210"/>
       <c r="K86" s="24"/>
     </row>
-    <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.3452028397290379E-2</v>
+        <v>8.4131418814976572E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.7028596335762409E-2</v>
+        <v>7.7655693019250988E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>9.6285745419702862E-2</v>
+        <v>9.7069616274063589E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
     </row>
-    <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C88" s="170">
         <f>Inputs!C44</f>
@@ -12315,64 +12309,65 @@
       </c>
       <c r="K88" s="24"/>
     </row>
-    <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>9.1520863487294393E-2</v>
+        <v>9.2265943012211665E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7294752564187058E-2</v>
+        <v>6.7842605156037988E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.4024227820605776E-2</v>
+        <v>7.4626865671641798E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
     </row>
-    <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B90" s="28"/>
       <c r="C90" s="88"/>
     </row>
-    <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="5"/>
-      <c r="B91" s="106" t="s">
-        <v>157</v>
+      <c r="B91" s="106" t="str">
+        <f xml:space="preserve"> "Valuation Drivers in "&amp;Dashboard!H3</f>
+        <v>Valuation Drivers in HKD</v>
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C92" s="199" t="str">
         <f>Inputs!C15</f>
         <v>HK</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="E92" s="281" t="s">
-        <v>210</v>
-      </c>
-      <c r="F92" s="281"/>
+        <v>157</v>
+      </c>
+      <c r="E92" s="282" t="s">
+        <v>208</v>
+      </c>
+      <c r="F92" s="282"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="281" t="s">
-        <v>209</v>
-      </c>
-      <c r="I92" s="281"/>
+      <c r="H92" s="282" t="s">
+        <v>207</v>
+      </c>
+      <c r="I92" s="282"/>
       <c r="K92" s="24"/>
     </row>
-    <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B93" s="1" t="str">
         <f>C92&amp;" Discount Rate"</f>
         <v>HK Discount Rate</v>
@@ -12386,24 +12381,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
+        <v>211</v>
+      </c>
+      <c r="F93" s="144">
+        <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
+        <v>25.207338041353953</v>
+      </c>
+      <c r="H93" s="87" t="s">
+        <v>211</v>
+      </c>
+      <c r="I93" s="144">
+        <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
+        <v>34.451473157785486</v>
+      </c>
+      <c r="K93" s="24"/>
+    </row>
+    <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B94" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="F93" s="144">
-        <f>FV(E87,D93,0,-(E86/C93))</f>
-        <v>25.134081564660359</v>
-      </c>
-      <c r="H93" s="87" t="s">
-        <v>213</v>
-      </c>
-      <c r="I93" s="144">
-        <f>FV(H87,D93,0,-(H86/C93))</f>
-        <v>34.328568734604822</v>
-      </c>
-      <c r="K93" s="24"/>
-    </row>
-    <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B94" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="C94" s="183">
         <f>Dashboard!G20</f>
@@ -12411,26 +12406,26 @@
       </c>
       <c r="D94" s="145"/>
       <c r="E94" s="87" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F94" s="144">
-        <f>FV(E89,D93,0,-(E88/C93))</f>
-        <v>20.983500298435189</v>
+        <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
+        <v>21.037410771297456</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I94" s="144">
-        <f>FV(H89,D93,0,-(H88/C93))</f>
-        <v>23.818759592815184</v>
+        <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
+        <v>23.88565847179672</v>
       </c>
       <c r="K94" s="24"/>
     </row>
-    <row r="95" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E95" s="24"/>
       <c r="K95" s="24"/>
     </row>
-    <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="5"/>
       <c r="B96" s="106" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
@@ -12441,51 +12436,51 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E96" s="184" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="228" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H96" s="184" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
       <c r="I96" s="124" t="s">
-        <v>217</v>
+        <v>115</v>
       </c>
       <c r="K96" s="24"/>
     </row>
-    <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>10020384.399452206</v>
+        <v>10056259.753714258</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
-        <f>PV(C94,D93,0,-F93)*Exchange_Rate</f>
-        <v>12.496080617038771</v>
+        <f>PV(C94,D93,0,-F93)</f>
+        <v>12.532502032960748</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
-        <f>PV(C94,D93,0,-I93)*Exchange_Rate</f>
-        <v>17.067365730933773</v>
+        <f>PV(C94,D93,0,-I93)</f>
+        <v>17.128470950804452</v>
       </c>
       <c r="I97" s="123">
-        <f>PV(C93,D93,0,-I93)*Exchange_Rate</f>
-        <v>24.938462402650877</v>
+        <f>PV(C93,D93,0,-I93)</f>
+        <v>25.027748016633403</v>
       </c>
       <c r="K97" s="24"/>
     </row>
-    <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
@@ -12501,9 +12496,9 @@
       <c r="I98" s="216"/>
       <c r="K98" s="24"/>
     </row>
-    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
@@ -12511,7 +12506,7 @@
       </c>
       <c r="D99" s="215"/>
       <c r="E99" s="146">
-        <f>IF(H99&gt;0,H99*0.85,H99*1.15)</f>
+        <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
         <v>-0.1006402060541346</v>
       </c>
       <c r="F99" s="215"/>
@@ -12522,164 +12517,164 @@
       <c r="I99" s="217"/>
       <c r="K99" s="24"/>
     </row>
-    <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
         <v>115</v>
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>9969004.6994522065</v>
+        <v>10004880.053714259</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>12.395440410984637</v>
+        <v>12.431861826906614</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>12.395440410984637</v>
+        <v>12.431861826906614</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>14.687646459631321</v>
+        <v>14.736409777527648</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>16.979852508278004</v>
+        <v>17.040957728148683</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>24.850949179995109</v>
+        <v>24.940234793977634</v>
       </c>
       <c r="K100" s="24"/>
     </row>
-    <row r="101" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E101" s="24"/>
       <c r="K101" s="24"/>
     </row>
-    <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E102" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="228" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H102" s="184" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I102" s="124" t="s">
-        <v>217</v>
+        <v>115</v>
       </c>
       <c r="K102" s="24"/>
     </row>
-    <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>6952609.323253084</v>
+        <v>6972136.8627922349</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>9.4667225553548846</v>
+        <v>9.4922495849907467</v>
       </c>
       <c r="E103" s="123">
-        <f>PV(C94,D93,0,-F94)*Exchange_Rate</f>
-        <v>10.432508173506699</v>
+        <f>PV(C94,D93,0,-F94)</f>
+        <v>10.459311206402747</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>11.137320653358689</v>
+        <v>11.16735245293029</v>
       </c>
       <c r="H103" s="123">
-        <f>PV(C94,D93,0,-I94)*Exchange_Rate</f>
-        <v>11.842133133210677</v>
+        <f>PV(C94,D93,0,-I94)</f>
+        <v>11.875393699457833</v>
       </c>
       <c r="I103" s="109">
-        <f>PV(C93,D93,0,-I94)*Exchange_Rate</f>
-        <v>17.303466543433778</v>
+        <f>PV(C93,D93,0,-I94)</f>
+        <v>17.352066157101294</v>
       </c>
       <c r="K103" s="24"/>
     </row>
-    <row r="104" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E104" s="24"/>
       <c r="K104" s="24"/>
     </row>
-    <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E105" s="185" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="228" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H105" s="185" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I105" s="124" t="s">
-        <v>217</v>
+        <v>115</v>
       </c>
       <c r="K105" s="24"/>
     </row>
-    <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>6701233.9066756265</v>
+        <v>6719793.6917821188</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>10.931081483169761</v>
+        <v>10.96205570594868</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>11.413974292245669</v>
+        <v>11.44558651665468</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>12.912483556495005</v>
+        <v>12.951881115228968</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>14.41099282074434</v>
+        <v>14.458175713803257</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>21.077207861714442</v>
+        <v>21.146150475539464</v>
       </c>
       <c r="K106" s="24"/>
     </row>
-    <row r="107" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="K107" s="24"/>
     </row>
-    <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>
